--- a/data/new_stock.xlsx
+++ b/data/new_stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manav Sonawane\Desktop\StockTrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F649E2A-AE0A-4E38-923E-B7C36D1B9EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1959B4D-DCD8-4E54-98DF-CFBE0970A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4B451693-5325-4900-8B6D-4D464D811726}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4B451693-5325-4900-8B6D-4D464D811726}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UID</t>
   </si>
@@ -58,57 +58,6 @@
   </si>
   <si>
     <t>Last Scanned</t>
-  </si>
-  <si>
-    <t>SH001</t>
-  </si>
-  <si>
-    <t>SH002</t>
-  </si>
-  <si>
-    <t>SH003</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>Adidas</t>
-  </si>
-  <si>
-    <t>Puma</t>
-  </si>
-  <si>
-    <t>AirMax</t>
-  </si>
-  <si>
-    <t>UltraBoost</t>
-  </si>
-  <si>
-    <t>RS-X</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>In Stock</t>
-  </si>
-  <si>
-    <t>Out</t>
-  </si>
-  <si>
-    <t>SH004</t>
-  </si>
-  <si>
-    <t>Reebok</t>
-  </si>
-  <si>
-    <t>Classic</t>
   </si>
 </sst>
 </file>
@@ -460,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29C83D8-12A7-4861-9AAB-E95230E40CDF}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J7" sqref="A2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,98 +443,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
